--- a/Assets/DevelopAssets/Excels/WeaponsConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/WeaponsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -983,17 +983,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19.9449541284404" customWidth="1"/>
-    <col min="3" max="3" width="25.7981651376147" customWidth="1"/>
-    <col min="4" max="4" width="26.4220183486239" customWidth="1"/>
-    <col min="5" max="5" width="14.5779816513761" customWidth="1"/>
-    <col min="6" max="6" width="16.5688073394495" customWidth="1"/>
-    <col min="7" max="7" width="16.1192660550459" customWidth="1"/>
+    <col min="2" max="2" width="19.9444444444444" customWidth="1"/>
+    <col min="3" max="3" width="25.7962962962963" customWidth="1"/>
+    <col min="4" max="4" width="26.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="14.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="16.5648148148148" customWidth="1"/>
+    <col min="7" max="7" width="16.1203703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:3">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -1045,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1100,7 +1100,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1117,7 +1117,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
